--- a/Financials/Quarterly/HDB_QTR_FIN.xlsx
+++ b/Financials/Quarterly/HDB_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2AE22AF-678F-46CF-ADB9-859965AA2A1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HDB" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,36 +689,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="6" max="7" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -712,36 +747,36 @@
         <v>41090</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>11623000</v>
+        <v>12196500</v>
       </c>
       <c r="E8" s="3">
-        <v>5546200</v>
+        <v>5819900</v>
       </c>
       <c r="F8" s="3">
-        <v>9998100</v>
+        <v>10491500</v>
       </c>
       <c r="G8" s="3">
-        <v>4830100</v>
+        <v>5068500</v>
       </c>
       <c r="H8" s="3">
-        <v>1398400</v>
+        <v>1467400</v>
       </c>
       <c r="I8" s="3">
-        <v>1225100</v>
+        <v>1285600</v>
       </c>
       <c r="J8" s="3">
-        <v>1174700</v>
+        <v>1232700</v>
       </c>
       <c r="K8" s="3">
         <v>1103400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -770,7 +805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -799,7 +834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,7 +847,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -841,7 +876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,7 +905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,21 +934,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-133400</v>
+        <v>-140000</v>
       </c>
       <c r="E15" s="3">
-        <v>-66200</v>
+        <v>-69500</v>
       </c>
       <c r="F15" s="3">
-        <v>-122400</v>
+        <v>-128400</v>
       </c>
       <c r="G15" s="3">
-        <v>-59200</v>
+        <v>-62100</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>5</v>
@@ -928,7 +963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,65 +973,65 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6610400</v>
+        <v>6936600</v>
       </c>
       <c r="E17" s="3">
-        <v>3223200</v>
+        <v>3382300</v>
       </c>
       <c r="F17" s="3">
-        <v>5673400</v>
+        <v>5953300</v>
       </c>
       <c r="G17" s="3">
-        <v>2770300</v>
+        <v>2907100</v>
       </c>
       <c r="H17" s="3">
-        <v>775900</v>
+        <v>814200</v>
       </c>
       <c r="I17" s="3">
-        <v>732200</v>
+        <v>768400</v>
       </c>
       <c r="J17" s="3">
-        <v>700800</v>
+        <v>735400</v>
       </c>
       <c r="K17" s="3">
         <v>690500</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>5012500</v>
+        <v>5259900</v>
       </c>
       <c r="E18" s="3">
-        <v>2323000</v>
+        <v>2437700</v>
       </c>
       <c r="F18" s="3">
-        <v>4324800</v>
+        <v>4538200</v>
       </c>
       <c r="G18" s="3">
-        <v>2059800</v>
+        <v>2161400</v>
       </c>
       <c r="H18" s="3">
-        <v>622500</v>
+        <v>653300</v>
       </c>
       <c r="I18" s="3">
-        <v>492900</v>
+        <v>517200</v>
       </c>
       <c r="J18" s="3">
-        <v>473900</v>
+        <v>497300</v>
       </c>
       <c r="K18" s="3">
         <v>413000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,50 +1044,50 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1194000</v>
+        <v>-1252900</v>
       </c>
       <c r="E20" s="3">
-        <v>-608000</v>
+        <v>-638000</v>
       </c>
       <c r="F20" s="3">
-        <v>-1293600</v>
+        <v>-1357500</v>
       </c>
       <c r="G20" s="3">
-        <v>-711400</v>
+        <v>-746500</v>
       </c>
       <c r="H20" s="3">
-        <v>-331900</v>
+        <v>-348300</v>
       </c>
       <c r="I20" s="3">
-        <v>-118500</v>
+        <v>-124400</v>
       </c>
       <c r="J20" s="3">
-        <v>-159900</v>
+        <v>-167800</v>
       </c>
       <c r="K20" s="3">
         <v>-124400</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>3951900</v>
+        <v>4146900</v>
       </c>
       <c r="E21" s="3">
-        <v>1781200</v>
+        <v>1869100</v>
       </c>
       <c r="F21" s="3">
-        <v>3153500</v>
+        <v>3309100</v>
       </c>
       <c r="G21" s="3">
-        <v>1407500</v>
+        <v>1477000</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>5</v>
@@ -1067,7 +1102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,65 +1131,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>3818500</v>
+        <v>4007000</v>
       </c>
       <c r="E23" s="3">
-        <v>1715000</v>
+        <v>1799600</v>
       </c>
       <c r="F23" s="3">
-        <v>3031100</v>
+        <v>3180700</v>
       </c>
       <c r="G23" s="3">
-        <v>1348400</v>
+        <v>1414900</v>
       </c>
       <c r="H23" s="3">
-        <v>290600</v>
+        <v>305000</v>
       </c>
       <c r="I23" s="3">
-        <v>374300</v>
+        <v>392800</v>
       </c>
       <c r="J23" s="3">
-        <v>314000</v>
+        <v>329500</v>
       </c>
       <c r="K23" s="3">
         <v>288500</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1354200</v>
+        <v>1421000</v>
       </c>
       <c r="E24" s="3">
-        <v>618100</v>
+        <v>648600</v>
       </c>
       <c r="F24" s="3">
-        <v>1091700</v>
+        <v>1145600</v>
       </c>
       <c r="G24" s="3">
-        <v>495200</v>
+        <v>519600</v>
       </c>
       <c r="H24" s="3">
-        <v>100900</v>
+        <v>105800</v>
       </c>
       <c r="I24" s="3">
-        <v>118100</v>
+        <v>124000</v>
       </c>
       <c r="J24" s="3">
-        <v>99000</v>
+        <v>103900</v>
       </c>
       <c r="K24" s="3">
         <v>93200</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,65 +1218,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>2464300</v>
+        <v>2585900</v>
       </c>
       <c r="E26" s="3">
-        <v>1096900</v>
+        <v>1151000</v>
       </c>
       <c r="F26" s="3">
-        <v>1939400</v>
+        <v>2035100</v>
       </c>
       <c r="G26" s="3">
-        <v>853200</v>
+        <v>895300</v>
       </c>
       <c r="H26" s="3">
-        <v>189800</v>
+        <v>199100</v>
       </c>
       <c r="I26" s="3">
-        <v>256200</v>
+        <v>268800</v>
       </c>
       <c r="J26" s="3">
-        <v>215000</v>
+        <v>225600</v>
       </c>
       <c r="K26" s="3">
         <v>195300</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>2459900</v>
+        <v>2581300</v>
       </c>
       <c r="E27" s="3">
-        <v>1095100</v>
+        <v>1149100</v>
       </c>
       <c r="F27" s="3">
-        <v>1936500</v>
+        <v>2032100</v>
       </c>
       <c r="G27" s="3">
-        <v>851700</v>
+        <v>893700</v>
       </c>
       <c r="H27" s="3">
-        <v>185400</v>
+        <v>194600</v>
       </c>
       <c r="I27" s="3">
-        <v>256200</v>
+        <v>268800</v>
       </c>
       <c r="J27" s="3">
-        <v>215000</v>
+        <v>225600</v>
       </c>
       <c r="K27" s="3">
         <v>195300</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,7 +1334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,7 +1363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,65 +1392,65 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1194000</v>
+        <v>1252900</v>
       </c>
       <c r="E32" s="3">
-        <v>608000</v>
+        <v>638000</v>
       </c>
       <c r="F32" s="3">
-        <v>1293600</v>
+        <v>1357500</v>
       </c>
       <c r="G32" s="3">
-        <v>711400</v>
+        <v>746500</v>
       </c>
       <c r="H32" s="3">
-        <v>331900</v>
+        <v>348300</v>
       </c>
       <c r="I32" s="3">
-        <v>118500</v>
+        <v>124400</v>
       </c>
       <c r="J32" s="3">
-        <v>159900</v>
+        <v>167800</v>
       </c>
       <c r="K32" s="3">
         <v>124400</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>2459900</v>
+        <v>2581300</v>
       </c>
       <c r="E33" s="3">
-        <v>1095100</v>
+        <v>1149100</v>
       </c>
       <c r="F33" s="3">
-        <v>1936500</v>
+        <v>2032100</v>
       </c>
       <c r="G33" s="3">
-        <v>851700</v>
+        <v>893700</v>
       </c>
       <c r="H33" s="3">
-        <v>185400</v>
+        <v>194600</v>
       </c>
       <c r="I33" s="3">
-        <v>256200</v>
+        <v>268800</v>
       </c>
       <c r="J33" s="3">
-        <v>215000</v>
+        <v>225600</v>
       </c>
       <c r="K33" s="3">
         <v>195300</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,41 +1479,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>2459900</v>
+        <v>2581300</v>
       </c>
       <c r="E35" s="3">
-        <v>1095100</v>
+        <v>1149100</v>
       </c>
       <c r="F35" s="3">
-        <v>1936500</v>
+        <v>2032100</v>
       </c>
       <c r="G35" s="3">
-        <v>851700</v>
+        <v>893700</v>
       </c>
       <c r="H35" s="3">
-        <v>185400</v>
+        <v>194600</v>
       </c>
       <c r="I35" s="3">
-        <v>256200</v>
+        <v>268800</v>
       </c>
       <c r="J35" s="3">
-        <v>215000</v>
+        <v>225600</v>
       </c>
       <c r="K35" s="3">
         <v>195300</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1507,7 +1542,7 @@
         <v>41090</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,7 +1555,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,15 +1568,15 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>7911800</v>
+        <v>8302200</v>
       </c>
       <c r="E41" s="3">
-        <v>6284600</v>
+        <v>6594700</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>5</v>
@@ -1550,24 +1585,24 @@
         <v>5</v>
       </c>
       <c r="H41" s="3">
-        <v>3759200</v>
+        <v>3944700</v>
       </c>
       <c r="I41" s="3">
-        <v>3406400</v>
+        <v>3574500</v>
       </c>
       <c r="J41" s="3">
-        <v>3681000</v>
+        <v>3862600</v>
       </c>
       <c r="K41" s="3">
         <v>3302700</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>8957300</v>
+        <v>9399300</v>
       </c>
       <c r="E42" s="3">
         <v>0</v>
@@ -1591,7 +1626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,7 +1655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1649,7 +1684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1678,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1707,7 +1742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1736,15 +1771,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>537000</v>
+        <v>563500</v>
       </c>
       <c r="E48" s="3">
-        <v>525600</v>
+        <v>551600</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
@@ -1753,27 +1788,27 @@
         <v>5</v>
       </c>
       <c r="H48" s="3">
-        <v>372500</v>
+        <v>390900</v>
       </c>
       <c r="I48" s="3">
-        <v>354000</v>
+        <v>371500</v>
       </c>
       <c r="J48" s="3">
-        <v>344500</v>
+        <v>361500</v>
       </c>
       <c r="K48" s="3">
         <v>333600</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1032700</v>
+        <v>1083600</v>
       </c>
       <c r="E49" s="3">
-        <v>1032700</v>
+        <v>1083600</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>5</v>
@@ -1794,7 +1829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,7 +1858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,7 +1887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,7 +1916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,15 +1945,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>156641500</v>
+        <v>164371300</v>
       </c>
       <c r="E54" s="3">
-        <v>137426500</v>
+        <v>144208100</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>5</v>
@@ -1927,19 +1962,19 @@
         <v>5</v>
       </c>
       <c r="H54" s="3">
-        <v>55165700</v>
+        <v>57888000</v>
       </c>
       <c r="I54" s="3">
-        <v>52877800</v>
+        <v>55487200</v>
       </c>
       <c r="J54" s="3">
-        <v>52002200</v>
+        <v>54568400</v>
       </c>
       <c r="K54" s="3">
         <v>49608100</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,7 +1987,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,15 +2000,15 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6296900</v>
+        <v>6607600</v>
       </c>
       <c r="E57" s="3">
-        <v>6399800</v>
+        <v>6715600</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>5</v>
@@ -1994,7 +2029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2023,7 +2058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2052,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2081,15 +2116,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>12855400</v>
+        <v>13489800</v>
       </c>
       <c r="E61" s="3">
-        <v>12690900</v>
+        <v>13317200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2098,19 +2133,19 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>4548300</v>
+        <v>4772800</v>
       </c>
       <c r="I61" s="3">
-        <v>4352400</v>
+        <v>4567100</v>
       </c>
       <c r="J61" s="3">
-        <v>4268000</v>
+        <v>4478600</v>
       </c>
       <c r="K61" s="3">
         <v>3591600</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,7 +2174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,7 +2232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,15 +2261,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>140461500</v>
+        <v>147392900</v>
       </c>
       <c r="E66" s="3">
-        <v>122307900</v>
+        <v>128343500</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>5</v>
@@ -2243,19 +2278,19 @@
         <v>5</v>
       </c>
       <c r="H66" s="3">
-        <v>50175400</v>
+        <v>52651400</v>
       </c>
       <c r="I66" s="3">
-        <v>47994700</v>
+        <v>50363100</v>
       </c>
       <c r="J66" s="3">
-        <v>47407300</v>
+        <v>49746700</v>
       </c>
       <c r="K66" s="3">
         <v>45253100</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,7 +2303,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,7 +2361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,15 +2419,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>9593600</v>
+        <v>10067000</v>
       </c>
       <c r="E72" s="3">
-        <v>8234300</v>
+        <v>8640600</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>5</v>
@@ -2401,19 +2436,19 @@
         <v>5</v>
       </c>
       <c r="H72" s="3">
-        <v>4924700</v>
+        <v>5167800</v>
       </c>
       <c r="I72" s="3">
-        <v>4817800</v>
+        <v>5055600</v>
       </c>
       <c r="J72" s="3">
-        <v>4529800</v>
+        <v>4753300</v>
       </c>
       <c r="K72" s="3">
         <v>4290100</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,7 +2477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,7 +2506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,15 +2535,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>16180000</v>
+        <v>16978400</v>
       </c>
       <c r="E76" s="3">
-        <v>15118600</v>
+        <v>15864600</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>5</v>
@@ -2517,19 +2552,19 @@
         <v>5</v>
       </c>
       <c r="H76" s="3">
-        <v>4990300</v>
+        <v>5236600</v>
       </c>
       <c r="I76" s="3">
-        <v>4883100</v>
+        <v>5124100</v>
       </c>
       <c r="J76" s="3">
-        <v>4594900</v>
+        <v>4821700</v>
       </c>
       <c r="K76" s="3">
         <v>4355000</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,12 +2593,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2592,36 +2627,36 @@
         <v>41090</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>2459900</v>
+        <v>2581300</v>
       </c>
       <c r="E81" s="3">
-        <v>1095100</v>
+        <v>1149100</v>
       </c>
       <c r="F81" s="3">
-        <v>1936500</v>
+        <v>2032100</v>
       </c>
       <c r="G81" s="3">
-        <v>851700</v>
+        <v>893700</v>
       </c>
       <c r="H81" s="3">
-        <v>185400</v>
+        <v>194600</v>
       </c>
       <c r="I81" s="3">
-        <v>256200</v>
+        <v>268800</v>
       </c>
       <c r="J81" s="3">
-        <v>215000</v>
+        <v>225600</v>
       </c>
       <c r="K81" s="3">
         <v>195300</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,21 +2669,21 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>133400</v>
+        <v>140000</v>
       </c>
       <c r="E83" s="3">
-        <v>66200</v>
+        <v>69500</v>
       </c>
       <c r="F83" s="3">
-        <v>122400</v>
+        <v>128400</v>
       </c>
       <c r="G83" s="3">
-        <v>59200</v>
+        <v>62100</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>5</v>
@@ -2663,7 +2698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,7 +2756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,7 +2814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,21 +2843,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1299100</v>
+        <v>1363200</v>
       </c>
       <c r="E89" s="3">
-        <v>-572200</v>
+        <v>-600400</v>
       </c>
       <c r="F89" s="3">
-        <v>5226400</v>
+        <v>5484300</v>
       </c>
       <c r="G89" s="3">
-        <v>2144900</v>
+        <v>2250700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>5</v>
@@ -2837,7 +2872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,21 +2885,21 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-126500</v>
+        <v>-132800</v>
       </c>
       <c r="E91" s="3">
-        <v>-58800</v>
+        <v>-61700</v>
       </c>
       <c r="F91" s="3">
-        <v>-174000</v>
+        <v>-182600</v>
       </c>
       <c r="G91" s="3">
-        <v>-93100</v>
+        <v>-97700</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>5</v>
@@ -2879,7 +2914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,7 +2943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,21 +2972,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-28225900</v>
+        <v>-29618800</v>
       </c>
       <c r="E94" s="3">
-        <v>-10786900</v>
+        <v>-11319200</v>
       </c>
       <c r="F94" s="3">
-        <v>-21747700</v>
+        <v>-22820800</v>
       </c>
       <c r="G94" s="3">
-        <v>-11000300</v>
+        <v>-11543200</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>5</v>
@@ -2966,7 +3001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,21 +3014,21 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-475300</v>
+        <v>-498700</v>
       </c>
       <c r="E96" s="3">
-        <v>-469700</v>
+        <v>-492900</v>
       </c>
       <c r="F96" s="3">
-        <v>-403500</v>
+        <v>-423400</v>
       </c>
       <c r="G96" s="3">
-        <v>-399500</v>
+        <v>-419200</v>
       </c>
       <c r="H96" s="3">
         <v>0</v>
@@ -3008,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,7 +3101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,21 +3130,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>28896900</v>
+        <v>30322800</v>
       </c>
       <c r="E100" s="3">
-        <v>11714200</v>
+        <v>12292200</v>
       </c>
       <c r="F100" s="3">
-        <v>17279800</v>
+        <v>18132500</v>
       </c>
       <c r="G100" s="3">
-        <v>9032900</v>
+        <v>9478700</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>5</v>
@@ -3124,21 +3159,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="E101" s="3">
-        <v>-5600</v>
+        <v>-5900</v>
       </c>
       <c r="F101" s="3">
-        <v>-27700</v>
+        <v>-29000</v>
       </c>
       <c r="G101" s="3">
-        <v>4900</v>
+        <v>5100</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>5</v>
@@ -3153,21 +3188,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1976600</v>
+        <v>2074200</v>
       </c>
       <c r="E102" s="3">
-        <v>349500</v>
+        <v>366700</v>
       </c>
       <c r="F102" s="3">
-        <v>730800</v>
+        <v>766900</v>
       </c>
       <c r="G102" s="3">
-        <v>182400</v>
+        <v>191400</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>5</v>
